--- a/election_votar_data/SATKANIA/CHARATI/152338/152338_com_825_female_without_photo_47_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/CHARATI/152338/152338_com_825_female_without_photo_47_2025-11-24.xlsx
@@ -22434,7 +22434,7 @@
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৮১৩৬৮১১৩</t>
+          <t>১৫২৫৩৬১৩৬৮১১৩</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
@@ -23022,7 +23022,7 @@
       </c>
       <c r="C538" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৮১৩৭০৬৫</t>
+          <t>১৫২৫৩৬১৩৭০৬৫</t>
         </is>
       </c>
       <c r="D538" s="4" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="C539" s="3" t="inlineStr">
         <is>
-          <t>১৫২৩৩৮১৩৭০৬৬</t>
+          <t>১৫২৫৩৬১৩৭০৬৬</t>
         </is>
       </c>
       <c r="D539" s="4" t="inlineStr">
